--- a/artfynd/A 37421-2022.xlsx
+++ b/artfynd/A 37421-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY30"/>
+  <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4259,6 +4259,128 @@
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111885493</v>
+      </c>
+      <c r="B31" t="n">
+        <v>95610</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>167</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Höstlåsbräken</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Botrychium multifidum</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(S. G. Gmel.) Rupr.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Bödagården NO, Öl</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>623795.9600775555</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6348423.740576888</v>
+      </c>
+      <c r="S31" t="n">
+        <v>25</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Borgholm</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Öland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Böda</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-03</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>nyröjt område mellan sanddyner</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Ulla-Britt Andersson</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Ulla-Britt Andersson, Thomas Gunnarsson</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 37421-2022.xlsx
+++ b/artfynd/A 37421-2022.xlsx
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>623795.9600775555</v>
+        <v>623796</v>
       </c>
       <c r="R31" t="n">
-        <v>6348423.740576888</v>
+        <v>6348424</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4338,19 +4338,9 @@
           <t>2023-09-03</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-03</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">

--- a/artfynd/A 37421-2022.xlsx
+++ b/artfynd/A 37421-2022.xlsx
@@ -4264,7 +4264,7 @@
         <v>111885493</v>
       </c>
       <c r="B31" t="n">
-        <v>95610</v>
+        <v>95771</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>

--- a/artfynd/A 37421-2022.xlsx
+++ b/artfynd/A 37421-2022.xlsx
@@ -4264,7 +4264,7 @@
         <v>111885493</v>
       </c>
       <c r="B31" t="n">
-        <v>95771</v>
+        <v>95785</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
